--- a/lab/lab3/lab03_Section2.xlsx
+++ b/lab/lab3/lab03_Section2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605B5AF-DD24-0040-91B2-1242D968B5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD846775-3DB6-C64E-8DFA-6ACEB247A7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Attendance</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Yantus, Hana</t>
+  </si>
+  <si>
+    <t>Attended the lab, but didn't show TA the result.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Delayed submission on Monday.</t>
   </si>
 </sst>
 </file>
@@ -517,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +537,7 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -539,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -561,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -572,12 +581,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -588,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -599,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -610,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -621,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -632,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -643,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -654,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -665,12 +683,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -681,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -762,6 +786,12 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -833,6 +863,12 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -856,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -867,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -878,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -888,8 +924,11 @@
       <c r="C35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>

--- a/lab/lab3/lab03_Section2.xlsx
+++ b/lab/lab3/lab03_Section2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD846775-3DB6-C64E-8DFA-6ACEB247A7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CCF01-12BE-6149-8889-7123A8E28A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Attendance</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Delayed submission on Monday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't attend the lab, didn't show TA the result. </t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +696,9 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -716,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -727,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -738,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -749,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -760,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -771,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -782,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -792,8 +798,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -804,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -815,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -826,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -837,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -848,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -859,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -869,8 +878,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -881,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
